--- a/experiment result/64_0.7_40_zs20_kappa_lp.xlsx
+++ b/experiment result/64_0.7_40_zs20_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01353983057045542</v>
+        <v>0.006471021752523612</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009341840985228509</v>
+        <v>0.01007651639576643</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02434194971919562</v>
+        <v>0.002416647380289356</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02537018186687052</v>
+        <v>0.01163696700319199</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0198710490755011</v>
+        <v>0.002799011649524036</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02157957777770924</v>
+        <v>0.01312881249709294</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01608649491961781</v>
+        <v>0.001102552276919654</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01505574291427626</v>
+        <v>0.01348871272742074</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.015798687818354</v>
+        <v>0.005042025654494053</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01298492734784139</v>
+        <v>0.003582420240147767</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.01785441978690718</v>
+        <v>0.009810240890725089</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03064072526991837</v>
+        <v>0.05217689186337267</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01317209487804441</v>
+        <v>0.0007084198673048615</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01857703520871254</v>
+        <v>0.001221932065724631</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01271481003483454</v>
+        <v>0.0008434216627392655</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02100297596294976</v>
+        <v>0.002931599028981575</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02467527230645779</v>
+        <v>0.008240402364324381</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00596310892079596</v>
+        <v>0.0006198693866586383</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02113566975920675</v>
+        <v>0.005699860670787255</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02151355251973546</v>
+        <v>0.02438181489983542</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01399629615524785</v>
+        <v>0.004741838806255394</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01558732653609724</v>
+        <v>0.001311822542398578</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01709057992445919</v>
+        <v>0.004721478543191826</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.009230703253037353</v>
+        <v>0.001800791466492969</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.004993458693007799</v>
+        <v>0.002960828808707379</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01773296841713514</v>
+        <v>0.006637144911390905</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02004619152389366</v>
+        <v>0.008341392878442893</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01900251365620851</v>
+        <v>0.01236067947171455</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01269766573867739</v>
+        <v>0.002857041120914414</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03249976935547445</v>
+        <v>0.01806907352252101</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.01052216925853485</v>
+        <v>0.001067419020267291</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01459234758924238</v>
+        <v>0.0004080099635410807</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02596244922919926</v>
+        <v>0.00444442087273284</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.009479282288383267</v>
+        <v>0.0004965711246817933</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01449602377352407</v>
+        <v>0.003247981605801746</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01610374882313929</v>
+        <v>0.001144828508423576</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.008109459359335483</v>
+        <v>0.00102753160879904</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02749244336322777</v>
+        <v>0.003487800935098317</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01356558498179178</v>
+        <v>0.002082644960584495</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02635393747886105</v>
+        <v>0.0804008376030512</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02667174269063965</v>
+        <v>0.01684619249834335</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.018068401075329</v>
+        <v>0.02201347417454306</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02455272715635773</v>
+        <v>0.005343280737309596</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01292206236229446</v>
+        <v>0.002178017482352725</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01736711179257701</v>
+        <v>0.02528840239210149</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02414892923915134</v>
+        <v>0.01771304916684676</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02866267997714076</v>
+        <v>0.006669609391635171</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.007293168711361692</v>
+        <v>0.0009784858817729668</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01944641310100566</v>
+        <v>0.002871258560277163</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.008482865475317795</v>
+        <v>0.0002571279324707814</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01504256442014553</v>
+        <v>0.001714050877413101</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01441117539774404</v>
+        <v>0.002678236919187075</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.004066767071524017</v>
+        <v>4.486943547337046e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.008049835550805431</v>
+        <v>0.001076795392032761</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01674066807409724</v>
+        <v>0.004712805375241056</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.02243137959590499</v>
+        <v>0.009405195080518073</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01129322192874005</v>
+        <v>0.0002708331409870189</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.02043410504903908</v>
+        <v>0.00284956438342759</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01952039422824005</v>
+        <v>0.01965928031781469</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01077655069373738</v>
+        <v>0.001490762255934954</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.003425731837050308</v>
+        <v>0.0001993179713855242</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01315564527457893</v>
+        <v>0.004765238504729334</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.01201542291300605</v>
+        <v>0.007720220879389517</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0109207858965821</v>
+        <v>0.0005380155013141781</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02124663246761844</v>
+        <v>0.01098588275829197</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02049180764881664</v>
+        <v>0.0132960073007888</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.01881025897148393</v>
+        <v>0.005152985061326364</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.01451139239409246</v>
+        <v>0.001132110174256622</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005929723770039281</v>
+        <v>0.002090664849053254</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.009316163336605555</v>
+        <v>0.01328432445669743</v>
       </c>
     </row>
   </sheetData>
